--- a/email_list.xlsx
+++ b/email_list.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>joseph.h.zhang@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Custom Subject 1</t>
   </si>
@@ -73,9 +67,6 @@
   </si>
   <si>
     <t>Name 4</t>
-  </si>
-  <si>
-    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -455,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -468,86 +459,71 @@
     <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
-    <hyperlink ref="G8" r:id="rId3"/>
-    <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="B1" r:id="rId5"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
